--- a/data.xlsx
+++ b/data.xlsx
@@ -1,25 +1,492 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92d2703bb5f882e7/Documents/Uni/Y1T2/1014SCG/Data-Scraper-For-PetrolSpy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_1BBBDA15673C492FEB0465EFB9EB91783047F406" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA874284-8C80-463B-A9D7-74E22FE2394A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4530" yWindow="0" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lytton" sheetId="1" r:id="rId1"/>
+    <sheet name="Goodna" sheetId="2" r:id="rId2"/>
+    <sheet name="Windsor" sheetId="3" r:id="rId3"/>
+    <sheet name="Kenmore" sheetId="4" r:id="rId4"/>
+    <sheet name="Jimboomba" sheetId="5" r:id="rId5"/>
+    <sheet name="Annerley" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="152">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ampol Petrol</t>
+  </si>
+  <si>
+    <t>Ampol Diesel</t>
+  </si>
+  <si>
+    <t>BP Petrol</t>
+  </si>
+  <si>
+    <t>BP Diesel</t>
+  </si>
+  <si>
+    <t>27/07/2023 10:42:49</t>
+  </si>
+  <si>
+    <t>204.9</t>
+  </si>
+  <si>
+    <t>196.9</t>
+  </si>
+  <si>
+    <t>194.9</t>
+  </si>
+  <si>
+    <t>27/07/2023 19:35:27</t>
+  </si>
+  <si>
+    <t>200.9</t>
+  </si>
+  <si>
+    <t>28/07/2023 09:52:57</t>
+  </si>
+  <si>
+    <t>28/07/2023 18:36:38</t>
+  </si>
+  <si>
+    <t>29/07/2023 07:43:16</t>
+  </si>
+  <si>
+    <t>29/07/2023 18:05:32</t>
+  </si>
+  <si>
+    <t>30/07/2023 09:32:13</t>
+  </si>
+  <si>
+    <t>30/07/2023 16:36:39</t>
+  </si>
+  <si>
+    <t>31/07/2023 09:51:48</t>
+  </si>
+  <si>
+    <t>31/07/2023 19:57:36</t>
+  </si>
+  <si>
+    <t>191.9</t>
+  </si>
+  <si>
+    <t>198.9</t>
+  </si>
+  <si>
+    <t>01/08/2023 08:26:04</t>
+  </si>
+  <si>
+    <t>01/08/2023 16:06:32</t>
+  </si>
+  <si>
+    <t>186.9</t>
+  </si>
+  <si>
+    <t>02/08/2023 12:11:39</t>
+  </si>
+  <si>
+    <t>185.9</t>
+  </si>
+  <si>
+    <t>02/08/2023 20:37:29</t>
+  </si>
+  <si>
+    <t>202.9</t>
+  </si>
+  <si>
+    <t>03/08/2023 08:29:39</t>
+  </si>
+  <si>
+    <t>03/08/2023 14:47:48</t>
+  </si>
+  <si>
+    <t>207.9</t>
+  </si>
+  <si>
+    <t>04/08/2023 12:03:07</t>
+  </si>
+  <si>
+    <t>211.9</t>
+  </si>
+  <si>
+    <t>04/08/2023 19:59:43</t>
+  </si>
+  <si>
+    <t>210.9</t>
+  </si>
+  <si>
+    <t>05/08/2023 07:38:17</t>
+  </si>
+  <si>
+    <t>05/08/2023 18:06:39</t>
+  </si>
+  <si>
+    <t>06/08/2023 10:45:15</t>
+  </si>
+  <si>
+    <t>27/07/2023 10:43:13</t>
+  </si>
+  <si>
+    <t>203.9</t>
+  </si>
+  <si>
+    <t>199.9</t>
+  </si>
+  <si>
+    <t>27/07/2023 19:35:52</t>
+  </si>
+  <si>
+    <t>201.9</t>
+  </si>
+  <si>
+    <t>28/07/2023 09:53:28</t>
+  </si>
+  <si>
+    <t>28/07/2023 18:37:07</t>
+  </si>
+  <si>
+    <t>29/07/2023 07:43:41</t>
+  </si>
+  <si>
+    <t>29/07/2023 18:06:01</t>
+  </si>
+  <si>
+    <t>30/07/2023 09:32:39</t>
+  </si>
+  <si>
+    <t>30/07/2023 16:37:08</t>
+  </si>
+  <si>
+    <t>31/07/2023 09:52:13</t>
+  </si>
+  <si>
+    <t>31/07/2023 19:58:08</t>
+  </si>
+  <si>
+    <t>01/08/2023 08:26:32</t>
+  </si>
+  <si>
+    <t>01/08/2023 16:07:01</t>
+  </si>
+  <si>
+    <t>197.9</t>
+  </si>
+  <si>
+    <t>02/08/2023 12:12:05</t>
+  </si>
+  <si>
+    <t>02/08/2023 20:37:59</t>
+  </si>
+  <si>
+    <t>03/08/2023 08:30:07</t>
+  </si>
+  <si>
+    <t>03/08/2023 14:48:16</t>
+  </si>
+  <si>
+    <t>04/08/2023 12:03:33</t>
+  </si>
+  <si>
+    <t>04/08/2023 20:00:14</t>
+  </si>
+  <si>
+    <t>05/08/2023 07:38:46</t>
+  </si>
+  <si>
+    <t>05/08/2023 18:07:06</t>
+  </si>
+  <si>
+    <t>06/08/2023 10:45:45</t>
+  </si>
+  <si>
+    <t>27/07/2023 10:43:37</t>
+  </si>
+  <si>
+    <t>27/07/2023 19:36:16</t>
+  </si>
+  <si>
+    <t>28/07/2023 09:53:59</t>
+  </si>
+  <si>
+    <t>195.9</t>
+  </si>
+  <si>
+    <t>28/07/2023 18:37:34</t>
+  </si>
+  <si>
+    <t>29/07/2023 07:44:09</t>
+  </si>
+  <si>
+    <t>29/07/2023 18:06:29</t>
+  </si>
+  <si>
+    <t>30/07/2023 09:33:06</t>
+  </si>
+  <si>
+    <t>195.7</t>
+  </si>
+  <si>
+    <t>30/07/2023 16:37:36</t>
+  </si>
+  <si>
+    <t>31/07/2023 09:52:39</t>
+  </si>
+  <si>
+    <t>31/07/2023 19:58:38</t>
+  </si>
+  <si>
+    <t>01/08/2023 08:27:00</t>
+  </si>
+  <si>
+    <t>01/08/2023 16:07:30</t>
+  </si>
+  <si>
+    <t>02/08/2023 12:12:32</t>
+  </si>
+  <si>
+    <t>193.7</t>
+  </si>
+  <si>
+    <t>205.9</t>
+  </si>
+  <si>
+    <t>02/08/2023 20:38:26</t>
+  </si>
+  <si>
+    <t>206.9</t>
+  </si>
+  <si>
+    <t>03/08/2023 08:30:34</t>
+  </si>
+  <si>
+    <t>03/08/2023 14:48:45</t>
+  </si>
+  <si>
+    <t>209.9</t>
+  </si>
+  <si>
+    <t>04/08/2023 12:04:03</t>
+  </si>
+  <si>
+    <t>213.9</t>
+  </si>
+  <si>
+    <t>04/08/2023 20:00:46</t>
+  </si>
+  <si>
+    <t>05/08/2023 07:39:14</t>
+  </si>
+  <si>
+    <t>215.9</t>
+  </si>
+  <si>
+    <t>05/08/2023 18:07:42</t>
+  </si>
+  <si>
+    <t>06/08/2023 10:46:14</t>
+  </si>
+  <si>
+    <t>27/07/2023 10:44:01</t>
+  </si>
+  <si>
+    <t>193.9</t>
+  </si>
+  <si>
+    <t>27/07/2023 19:36:41</t>
+  </si>
+  <si>
+    <t>28/07/2023 09:54:29</t>
+  </si>
+  <si>
+    <t>28/07/2023 18:38:04</t>
+  </si>
+  <si>
+    <t>189.9</t>
+  </si>
+  <si>
+    <t>29/07/2023 07:44:36</t>
+  </si>
+  <si>
+    <t>29/07/2023 18:07:00</t>
+  </si>
+  <si>
+    <t>30/07/2023 09:33:34</t>
+  </si>
+  <si>
+    <t>30/07/2023 16:38:05</t>
+  </si>
+  <si>
+    <t>31/07/2023 09:53:04</t>
+  </si>
+  <si>
+    <t>188.9</t>
+  </si>
+  <si>
+    <t>31/07/2023 19:59:08</t>
+  </si>
+  <si>
+    <t>01/08/2023 08:27:28</t>
+  </si>
+  <si>
+    <t>01/08/2023 16:07:58</t>
+  </si>
+  <si>
+    <t>02/08/2023 12:13:02</t>
+  </si>
+  <si>
+    <t>02/08/2023 20:38:59</t>
+  </si>
+  <si>
+    <t>03/08/2023 08:31:03</t>
+  </si>
+  <si>
+    <t>03/08/2023 14:49:13</t>
+  </si>
+  <si>
+    <t>04/08/2023 12:04:31</t>
+  </si>
+  <si>
+    <t>04/08/2023 20:01:23</t>
+  </si>
+  <si>
+    <t>05/08/2023 07:39:43</t>
+  </si>
+  <si>
+    <t>05/08/2023 18:08:12</t>
+  </si>
+  <si>
+    <t>06/08/2023 10:46:41</t>
+  </si>
+  <si>
+    <t>27/07/2023 10:44:26</t>
+  </si>
+  <si>
+    <t>192.9</t>
+  </si>
+  <si>
+    <t>27/07/2023 19:37:07</t>
+  </si>
+  <si>
+    <t>28/07/2023 09:55:00</t>
+  </si>
+  <si>
+    <t>28/07/2023 18:38:34</t>
+  </si>
+  <si>
+    <t>29/07/2023 07:45:04</t>
+  </si>
+  <si>
+    <t>29/07/2023 18:07:29</t>
+  </si>
+  <si>
+    <t>30/07/2023 09:34:02</t>
+  </si>
+  <si>
+    <t>30/07/2023 16:38:35</t>
+  </si>
+  <si>
+    <t>31/07/2023 09:53:29</t>
+  </si>
+  <si>
+    <t>187.9</t>
+  </si>
+  <si>
+    <t>31/07/2023 19:59:37</t>
+  </si>
+  <si>
+    <t>01/08/2023 08:27:55</t>
+  </si>
+  <si>
+    <t>01/08/2023 16:08:27</t>
+  </si>
+  <si>
+    <t>02/08/2023 12:13:32</t>
+  </si>
+  <si>
+    <t>02/08/2023 20:39:28</t>
+  </si>
+  <si>
+    <t>03/08/2023 08:31:32</t>
+  </si>
+  <si>
+    <t>03/08/2023 14:49:41</t>
+  </si>
+  <si>
+    <t>04/08/2023 12:04:59</t>
+  </si>
+  <si>
+    <t>208.9</t>
+  </si>
+  <si>
+    <t>04/08/2023 20:01:54</t>
+  </si>
+  <si>
+    <t>05/08/2023 07:40:10</t>
+  </si>
+  <si>
+    <t>05/08/2023 18:08:41</t>
+  </si>
+  <si>
+    <t>06/08/2023 10:47:09</t>
+  </si>
+  <si>
+    <t>31/07/2023 20:00:06</t>
+  </si>
+  <si>
+    <t>01/08/2023 08:28:24</t>
+  </si>
+  <si>
+    <t>01/08/2023 16:08:55</t>
+  </si>
+  <si>
+    <t>02/08/2023 12:14:01</t>
+  </si>
+  <si>
+    <t>02/08/2023 20:39:58</t>
+  </si>
+  <si>
+    <t>03/08/2023 08:31:59</t>
+  </si>
+  <si>
+    <t>03/08/2023 14:50:10</t>
+  </si>
+  <si>
+    <t>04/08/2023 12:05:27</t>
+  </si>
+  <si>
+    <t>04/08/2023 20:02:24</t>
+  </si>
+  <si>
+    <t>05/08/2023 07:40:37</t>
+  </si>
+  <si>
+    <t>05/08/2023 18:09:09</t>
+  </si>
+  <si>
+    <t>06/08/2023 10:47:37</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +516,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +798,2241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E26" sqref="A24:E26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E27" sqref="A24:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E27" sqref="A24:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E26" sqref="A24:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E26" sqref="A24:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A15:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45138.383738425917</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92d2703bb5f882e7/Documents/Uni/Y1T2/1014SCG/Data-Scraper-For-PetrolSpy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1BBBDA15673C492FEB0465EFB9EB91783047F406" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA874284-8C80-463B-A9D7-74E22FE2394A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_393E8615E6079C3368C8CF9E35AD1933F41BEB7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F8BF1B-2CD6-49B0-A4B1-0A8F20E0500F}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="0" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lytton" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -141,6 +141,9 @@
     <t>06/08/2023 10:45:15</t>
   </si>
   <si>
+    <t>06/08/2023 20:33:13</t>
+  </si>
+  <si>
     <t>27/07/2023 10:43:13</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
     <t>06/08/2023 10:45:45</t>
   </si>
   <si>
+    <t>06/08/2023 20:33:15</t>
+  </si>
+  <si>
     <t>27/07/2023 10:43:37</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
     <t>06/08/2023 10:46:14</t>
   </si>
   <si>
+    <t>06/08/2023 20:33:22</t>
+  </si>
+  <si>
     <t>27/07/2023 10:44:01</t>
   </si>
   <si>
@@ -481,6 +490,9 @@
   </si>
   <si>
     <t>06/08/2023 10:47:37</t>
+  </si>
+  <si>
+    <t>06/08/2023 20:33:19</t>
   </si>
 </sst>
 </file>
@@ -799,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E26" sqref="A24:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1188,6 +1200,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1195,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E27" sqref="A24:E27"/>
@@ -1229,211 +1258,211 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1445,12 +1474,12 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1467,7 +1496,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1484,7 +1513,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1501,7 +1530,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1518,7 +1547,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1535,7 +1564,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1552,7 +1581,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1569,7 +1598,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1581,6 +1610,23 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1591,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E27" sqref="A24:E27"/>
@@ -1625,16 +1671,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1642,16 +1688,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -1659,16 +1705,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1676,13 +1722,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1693,13 +1739,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1710,13 +1756,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1727,13 +1773,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1744,13 +1790,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1761,47 +1807,47 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1812,13 +1858,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1829,78 +1875,78 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1909,15 +1955,15 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -1926,15 +1972,15 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1943,15 +1989,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -1960,15 +2006,15 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -1977,7 +2023,24 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E26" sqref="A24:E26"/>
@@ -2021,237 +2084,237 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -2259,16 +2322,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -2276,33 +2339,33 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -2310,16 +2373,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
@@ -2327,16 +2390,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -2344,16 +2407,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
@@ -2361,18 +2424,35 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2383,7 +2463,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E26" sqref="A24:E26"/>
@@ -2417,50 +2497,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2468,16 +2548,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2485,16 +2565,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -2502,16 +2582,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2519,16 +2599,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2536,16 +2616,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2553,67 +2633,67 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
         <v>129</v>
       </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -2621,64 +2701,64 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -2689,24 +2769,24 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -2718,12 +2798,12 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -2735,12 +2815,12 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2752,12 +2832,12 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2769,7 +2849,24 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2876,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="A15:E16"/>
@@ -2819,61 +2916,61 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -2881,16 +2978,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -2898,138 +2995,155 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -1059,6 +1059,87 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/08/2023 20:46:27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>211.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:48:01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>211.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:32:47</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>216.9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1070,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E27" sqref="A24:E27"/>
@@ -1733,6 +1814,87 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/08/2023 20:47:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>196.9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>196.9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:48:29</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>196.9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>196.9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:33:16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>196.9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>216.9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>196.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>216.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1744,7 +1906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E27" sqref="A24:E27"/>
@@ -2407,6 +2569,87 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/08/2023 20:47:32</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>193.7</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>212.9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>194.9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>215.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:48:58</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>193.7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>212.9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>194.9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>217.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:33:48</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>193.7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>215.9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>194.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>217.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2418,7 +2661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E26" sqref="A24:E26"/>
@@ -3081,6 +3324,87 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/08/2023 20:48:03</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>188.9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>188.9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>215.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:49:25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>188.9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>188.9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>215.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:34:20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>188.9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>216.9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>188.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>215.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3092,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E26" sqref="A24:E26"/>
@@ -3755,6 +4079,87 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/08/2023 20:48:34</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>208.9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>210.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:49:53</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>210.9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>210.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:35:51</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>212.9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>185.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3766,7 +4171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="A15:E16"/>
@@ -4211,6 +4616,87 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07/08/2023 20:49:03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>192.9</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>193.9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>207.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08/08/2023 09:50:21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>191.9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>213.9</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>193.9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>207.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:36:21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>191.9</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>216.9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>191.9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>207.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
